--- a/words.xlsx
+++ b/words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE458BB7-CEA6-40C6-9ABB-D4FAA9F16CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F770D9B6-467F-4BBB-8F01-37F0A3A4B0AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,15 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="192">
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="220">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,6 +780,126 @@
   </si>
   <si>
     <t>pay back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull apart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把拉开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进站；驶向路边停靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开到路上；出站；脱离；退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向路边停靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put aside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储；留下；放下；放在一边；搁在一边；不予考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放回原处；拨慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇压；压制；写下来；记下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨快；提出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使熄灭；扑灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造；搭起；张贴；增加；抬高；投宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put up with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍受；容忍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1116,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1131,23 +1243,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1179,18 +1291,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,15 +1310,15 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,15 +1331,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1243,18 +1355,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,15 +1382,15 @@
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,15 +1414,15 @@
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,10 +1451,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,23 +1534,23 @@
         <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,15 +1574,15 @@
         <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,15 +1622,15 @@
         <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,10 +1683,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,15 +1718,15 @@
         <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,10 +1795,10 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,15 +1870,15 @@
         <v>155</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,18 +1891,18 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1859,7 +1971,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>182</v>
@@ -1867,7 +1979,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>184</v>
@@ -1891,10 +2003,122 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1916,2382 +2140,2382 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F770D9B6-467F-4BBB-8F01-37F0A3A4B0AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB21919-7215-4174-AA80-DC8EB430C4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="238">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -900,6 +900,78 @@
   </si>
   <si>
     <t>忍受；容忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run out of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始做或处理；着手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set aside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留出；拨出；节省；暂时不考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写下；记下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动身；出发；引爆；衬托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出发；动身；启程；开始工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖起来；立起来；支起来；创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞倒并碾轧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2119,6 +2191,78 @@
       </c>
       <c r="B110" s="1" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB21919-7215-4174-AA80-DC8EB430C4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9689ECA-0D86-4279-B61D-233B1FE536F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="239">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提出；相处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cut down</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剪下；中断；切断；使与外界隔绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cut out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,6 +964,18 @@
   </si>
   <si>
     <t>撞倒并碾轧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切下；剪下；中断；切断；使与外界隔绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出；想出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1386,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1434,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,791 +1482,791 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9689ECA-0D86-4279-B61D-233B1FE536F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028993C4-92EF-46AD-92F1-17A9FC16077B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="255">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -976,6 +976,70 @@
   </si>
   <si>
     <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领到处看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炫耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住；理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承担；呈现；雇用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接替；接管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占去；从事某项活动；发展某种爱好；继续讲述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2267,6 +2331,70 @@
       </c>
       <c r="B119" s="1" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028993C4-92EF-46AD-92F1-17A9FC16077B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211BAA9-AF47-4D06-9665-C54FB03BCCE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="501">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,10 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询；查找；看望；掰方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>make out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1040,6 +1036,994 @@
   </si>
   <si>
     <t>占去；从事某项活动；发展某种爱好；继续讲述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转身；转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转身不看；不准某人进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上床睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果是；生产；制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移交；交给；翻身；翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露面；出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事；影响；继续工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制订；拟定；算出；估计出；理解；弄懂；判断；说出；看出；得到圆满解决；情况良好；锻炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求助于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询；查找；看望；拜访</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at college</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at dawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在黎明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at daybreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在拂晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at dusk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在黄昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at ease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不拘束；放松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起初；当初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在手边；即将来临的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在夜晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at noon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随时可以帮助某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机；随意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at sunrise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日出时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at sunset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日落时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随意；任意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by accident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶然；意外地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比之下；对比而言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by means of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by this means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用这种方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by virtue of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静止；不动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at ones service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外；而且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in advance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前；事先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于危险之中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in decline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in fact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in fashion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备好；妥当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in peace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在手头；在处理中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在正确的位置；准备就绪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为回报；作为回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in surprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊讶地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in trouble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入困境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in vain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in case of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in celebration of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆祝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in charge of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in favor of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持；赞同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in honor of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为向表示尊敬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in memory of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了纪念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in need of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in place of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in possession of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有；占有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in praise of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in search of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in spite of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in terms of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就而言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in view of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于；鉴于；考虑到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in addition to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除之外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in competition with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与竞争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in contrast with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与相比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in harmony with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与协调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in line with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与相似；与紧密相连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in parallel with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与同时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in preference to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in proportion to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in regard to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至于；关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with regard to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in reply to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in response to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对做出反应；响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in return for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为的回报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in tune with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与一致；与协调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in contrast to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on ones behalf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on track</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步入正轨；做法对头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on trail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在审判中；在实验中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on the other hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另一方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on account of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on sale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在着火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有毛病；出故障；杂乱无章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置不当；不得体；不适当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of reach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>够不着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康状况不好；变形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of sight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看不见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>above all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最重要的是；首先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是；终究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all in all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>along with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apart from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>around the clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜以继日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>around the corner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就要到来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aside from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in other words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换句话说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instead of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替；而不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in this case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然这样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in this regard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on top of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除之外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regardless of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管；不顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with respect to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于；就而言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1368,16 +2352,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1546,7 +2530,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +2554,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2010,7 +2994,7 @@
         <v>153</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2034,7 +3018,7 @@
         <v>160</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,319 +3066,1311 @@
         <v>171</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B127" s="1" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>254</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211BAA9-AF47-4D06-9665-C54FB03BCCE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B675FF0-F945-D442-87CC-B47AB2C006FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="词组" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="525">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2024,6 +2024,102 @@
   </si>
   <si>
     <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twice a week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周两次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twice as much as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两倍那么多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twice bigger than</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twice the size/length/width of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel like doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>would like to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>another two weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two more weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be able to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be capable of doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what about doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再两周时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总而言之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有能力做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当即将要做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how about doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be absent from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺席;不在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be about to do sth. when</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2031,7 +2127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2352,20 +2448,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2373,7 +2469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2381,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2389,7 +2485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2413,7 +2509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2429,7 +2525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2437,7 +2533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2445,7 +2541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2453,7 +2549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2461,7 +2557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2469,7 +2565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2477,7 +2573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2485,7 +2581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2493,7 +2589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -2501,7 +2597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2509,7 +2605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2517,7 +2613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2525,7 +2621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2533,7 +2629,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2541,7 +2637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2549,7 +2645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2557,7 +2653,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -2565,7 +2661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -2573,7 +2669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -2581,7 +2677,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -2589,7 +2685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -2597,7 +2693,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -2605,7 +2701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2613,7 +2709,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -2621,7 +2717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,7 +2725,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2637,7 +2733,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -2645,7 +2741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,7 +2749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -2661,7 +2757,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -2669,7 +2765,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -2677,7 +2773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -2685,7 +2781,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -2693,7 +2789,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -2701,7 +2797,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -2709,7 +2805,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -2717,7 +2813,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
@@ -2725,7 +2821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -2733,7 +2829,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -2741,7 +2837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -2749,7 +2845,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -2757,7 +2853,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -2765,7 +2861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -2773,7 +2869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -2781,7 +2877,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>99</v>
       </c>
@@ -2789,7 +2885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
@@ -2797,7 +2893,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -2805,7 +2901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -2813,7 +2909,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
@@ -2821,7 +2917,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -2829,7 +2925,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
@@ -2837,7 +2933,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
@@ -2845,7 +2941,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2853,7 +2949,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -2861,7 +2957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
@@ -2869,7 +2965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -2877,7 +2973,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -2885,7 +2981,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
@@ -2893,7 +2989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
@@ -2901,7 +2997,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -2909,7 +3005,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>131</v>
       </c>
@@ -2917,7 +3013,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -2925,7 +3021,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -2933,7 +3029,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>139</v>
       </c>
@@ -2941,7 +3037,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>141</v>
       </c>
@@ -2949,7 +3045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>143</v>
       </c>
@@ -2957,7 +3053,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>145</v>
       </c>
@@ -2965,7 +3061,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
@@ -2973,7 +3069,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
@@ -2981,7 +3077,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>151</v>
       </c>
@@ -2989,7 +3085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>153</v>
       </c>
@@ -2997,7 +3093,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
@@ -3005,7 +3101,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>156</v>
       </c>
@@ -3013,7 +3109,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
@@ -3021,7 +3117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -3029,7 +3125,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
@@ -3037,7 +3133,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
@@ -3045,7 +3141,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>167</v>
       </c>
@@ -3053,7 +3149,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
@@ -3061,7 +3157,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
@@ -3069,7 +3165,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>172</v>
       </c>
@@ -3077,7 +3173,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -3085,7 +3181,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
@@ -3093,7 +3189,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
@@ -3101,7 +3197,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
@@ -3109,7 +3205,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
@@ -3117,7 +3213,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
@@ -3125,7 +3221,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>187</v>
       </c>
@@ -3133,7 +3229,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>189</v>
       </c>
@@ -3141,7 +3237,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>191</v>
       </c>
@@ -3149,7 +3245,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>193</v>
       </c>
@@ -3157,7 +3253,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>195</v>
       </c>
@@ -3165,7 +3261,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
@@ -3173,7 +3269,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>199</v>
       </c>
@@ -3181,7 +3277,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>201</v>
       </c>
@@ -3189,7 +3285,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>203</v>
       </c>
@@ -3197,7 +3293,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>205</v>
       </c>
@@ -3205,7 +3301,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>207</v>
       </c>
@@ -3213,7 +3309,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>209</v>
       </c>
@@ -3221,7 +3317,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>211</v>
       </c>
@@ -3229,7 +3325,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>213</v>
       </c>
@@ -3237,7 +3333,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>215</v>
       </c>
@@ -3245,7 +3341,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>217</v>
       </c>
@@ -3253,7 +3349,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>219</v>
       </c>
@@ -3261,7 +3357,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
         <v>221</v>
       </c>
@@ -3269,7 +3365,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
@@ -3277,7 +3373,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
@@ -3285,7 +3381,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>226</v>
       </c>
@@ -3293,7 +3389,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>228</v>
       </c>
@@ -3301,7 +3397,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>231</v>
       </c>
@@ -3309,7 +3405,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
@@ -3317,7 +3413,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -3325,7 +3421,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -3333,7 +3429,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -3341,7 +3437,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -3349,7 +3445,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -3357,7 +3453,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -3365,7 +3461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -3373,7 +3469,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -3381,7 +3477,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
         <v>254</v>
       </c>
@@ -3389,7 +3485,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -3397,7 +3493,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -3405,7 +3501,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -3413,7 +3509,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -3421,7 +3517,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>264</v>
       </c>
@@ -3429,7 +3525,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -3437,7 +3533,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -3445,7 +3541,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -3453,7 +3549,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
         <v>271</v>
       </c>
@@ -3461,7 +3557,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
         <v>273</v>
       </c>
@@ -3469,7 +3565,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
@@ -3477,7 +3573,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
         <v>279</v>
       </c>
@@ -3485,7 +3581,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
         <v>281</v>
       </c>
@@ -3493,7 +3589,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
         <v>283</v>
       </c>
@@ -3501,7 +3597,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
         <v>285</v>
       </c>
@@ -3509,7 +3605,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>287</v>
       </c>
@@ -3517,7 +3613,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
         <v>289</v>
       </c>
@@ -3525,7 +3621,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
         <v>291</v>
       </c>
@@ -3533,7 +3629,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
         <v>293</v>
       </c>
@@ -3541,7 +3637,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
         <v>295</v>
       </c>
@@ -3549,7 +3645,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
         <v>297</v>
       </c>
@@ -3557,7 +3653,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
         <v>299</v>
       </c>
@@ -3565,7 +3661,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
         <v>326</v>
       </c>
@@ -3573,7 +3669,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
         <v>302</v>
       </c>
@@ -3581,7 +3677,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
         <v>304</v>
       </c>
@@ -3589,7 +3685,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
@@ -3597,7 +3693,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
         <v>307</v>
       </c>
@@ -3605,7 +3701,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
         <v>309</v>
       </c>
@@ -3613,7 +3709,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
         <v>311</v>
       </c>
@@ -3621,7 +3717,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
         <v>313</v>
       </c>
@@ -3629,7 +3725,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
         <v>315</v>
       </c>
@@ -3637,7 +3733,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
         <v>317</v>
       </c>
@@ -3645,7 +3741,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
         <v>319</v>
       </c>
@@ -3653,7 +3749,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
         <v>321</v>
       </c>
@@ -3661,7 +3757,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
         <v>323</v>
       </c>
@@ -3669,7 +3765,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
         <v>327</v>
       </c>
@@ -3677,7 +3773,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
         <v>329</v>
       </c>
@@ -3685,7 +3781,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
         <v>331</v>
       </c>
@@ -3693,7 +3789,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
         <v>333</v>
       </c>
@@ -3701,7 +3797,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
         <v>335</v>
       </c>
@@ -3709,7 +3805,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
         <v>337</v>
       </c>
@@ -3717,7 +3813,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
         <v>339</v>
       </c>
@@ -3725,7 +3821,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
         <v>341</v>
       </c>
@@ -3733,7 +3829,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
         <v>343</v>
       </c>
@@ -3741,7 +3837,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
         <v>345</v>
       </c>
@@ -3749,7 +3845,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
         <v>347</v>
       </c>
@@ -3757,7 +3853,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
         <v>348</v>
       </c>
@@ -3765,7 +3861,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
         <v>350</v>
       </c>
@@ -3773,7 +3869,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
         <v>352</v>
       </c>
@@ -3781,7 +3877,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
         <v>353</v>
       </c>
@@ -3789,7 +3885,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
         <v>357</v>
       </c>
@@ -3797,7 +3893,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
         <v>359</v>
       </c>
@@ -3805,7 +3901,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
         <v>361</v>
       </c>
@@ -3813,7 +3909,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
         <v>363</v>
       </c>
@@ -3821,7 +3917,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
         <v>365</v>
       </c>
@@ -3829,7 +3925,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
         <v>367</v>
       </c>
@@ -3837,7 +3933,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
         <v>369</v>
       </c>
@@ -3845,7 +3941,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
         <v>371</v>
       </c>
@@ -3853,7 +3949,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
         <v>373</v>
       </c>
@@ -3861,7 +3957,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
         <v>375</v>
       </c>
@@ -3869,7 +3965,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
         <v>377</v>
       </c>
@@ -3877,7 +3973,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
         <v>379</v>
       </c>
@@ -3885,7 +3981,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
         <v>381</v>
       </c>
@@ -3893,7 +3989,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
         <v>383</v>
       </c>
@@ -3901,7 +3997,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
         <v>385</v>
       </c>
@@ -3909,7 +4005,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
         <v>387</v>
       </c>
@@ -3917,7 +4013,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
         <v>389</v>
       </c>
@@ -3925,7 +4021,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
         <v>391</v>
       </c>
@@ -3933,7 +4029,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
         <v>393</v>
       </c>
@@ -3941,7 +4037,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
         <v>395</v>
       </c>
@@ -3949,7 +4045,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
         <v>397</v>
       </c>
@@ -3957,7 +4053,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
         <v>399</v>
       </c>
@@ -3965,7 +4061,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
         <v>401</v>
       </c>
@@ -3973,7 +4069,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
         <v>403</v>
       </c>
@@ -3981,7 +4077,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
         <v>405</v>
       </c>
@@ -3989,7 +4085,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
         <v>428</v>
       </c>
@@ -3997,7 +4093,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
         <v>407</v>
       </c>
@@ -4005,7 +4101,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
         <v>409</v>
       </c>
@@ -4013,7 +4109,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
         <v>411</v>
       </c>
@@ -4021,7 +4117,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
         <v>413</v>
       </c>
@@ -4029,7 +4125,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
         <v>415</v>
       </c>
@@ -4037,7 +4133,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
         <v>417</v>
       </c>
@@ -4045,7 +4141,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
         <v>419</v>
       </c>
@@ -4053,7 +4149,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
         <v>420</v>
       </c>
@@ -4061,7 +4157,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>422</v>
       </c>
@@ -4069,7 +4165,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>424</v>
       </c>
@@ -4077,7 +4173,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
         <v>426</v>
       </c>
@@ -4085,7 +4181,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
         <v>429</v>
       </c>
@@ -4093,7 +4189,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
         <v>431</v>
       </c>
@@ -4101,7 +4197,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
         <v>433</v>
       </c>
@@ -4109,7 +4205,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
         <v>435</v>
       </c>
@@ -4117,7 +4213,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
         <v>437</v>
       </c>
@@ -4125,7 +4221,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
         <v>439</v>
       </c>
@@ -4133,7 +4229,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
         <v>441</v>
       </c>
@@ -4141,7 +4237,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
         <v>443</v>
       </c>
@@ -4149,7 +4245,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
         <v>444</v>
       </c>
@@ -4157,7 +4253,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>447</v>
       </c>
@@ -4165,7 +4261,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
         <v>449</v>
       </c>
@@ -4173,7 +4269,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
         <v>451</v>
       </c>
@@ -4181,7 +4277,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
         <v>453</v>
       </c>
@@ -4189,7 +4285,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
         <v>455</v>
       </c>
@@ -4197,7 +4293,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
         <v>457</v>
       </c>
@@ -4205,7 +4301,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
         <v>459</v>
       </c>
@@ -4213,7 +4309,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
         <v>461</v>
       </c>
@@ -4221,7 +4317,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
         <v>463</v>
       </c>
@@ -4229,7 +4325,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
         <v>465</v>
       </c>
@@ -4237,7 +4333,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
         <v>467</v>
       </c>
@@ -4245,7 +4341,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>469</v>
       </c>
@@ -4253,7 +4349,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
         <v>471</v>
       </c>
@@ -4261,7 +4357,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
         <v>473</v>
       </c>
@@ -4269,7 +4365,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
         <v>475</v>
       </c>
@@ -4277,7 +4373,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
         <v>476</v>
       </c>
@@ -4285,7 +4381,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
         <v>477</v>
       </c>
@@ -4293,7 +4389,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
         <v>480</v>
       </c>
@@ -4301,7 +4397,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
         <v>482</v>
       </c>
@@ -4309,7 +4405,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
         <v>484</v>
       </c>
@@ -4317,7 +4413,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
         <v>486</v>
       </c>
@@ -4325,7 +4421,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
         <v>488</v>
       </c>
@@ -4333,7 +4429,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
         <v>490</v>
       </c>
@@ -4341,7 +4437,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
         <v>492</v>
       </c>
@@ -4349,7 +4445,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
         <v>494</v>
       </c>
@@ -4357,7 +4453,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
         <v>496</v>
       </c>
@@ -4365,12 +4461,132 @@
         <v>497</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -4388,2384 +4604,2384 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1">
       <c r="A183" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1">
       <c r="A184" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1">
       <c r="A187" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1">
       <c r="A198" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1">
       <c r="A199" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1">
       <c r="A200" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1">
       <c r="A201" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1">
       <c r="A205" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1">
       <c r="A206" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1">
       <c r="A208" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1">
       <c r="A210" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1">
       <c r="A211" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1">
       <c r="A212" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1">
       <c r="A213" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1">
       <c r="A214" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1">
       <c r="A215" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1">
       <c r="A216" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1">
       <c r="A217" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1">
       <c r="A218" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1">
       <c r="A219" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1">
       <c r="A220" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1">
       <c r="A221" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1">
       <c r="A222" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1">
       <c r="A223" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1">
       <c r="A224" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1">
       <c r="A226" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1">
       <c r="A227" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1">
       <c r="A228" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1">
       <c r="A229" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1">
       <c r="A230" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1">
       <c r="A231" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1">
       <c r="A232" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1">
       <c r="A233" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1">
       <c r="A234" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1">
       <c r="A235" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1">
       <c r="A236" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1">
       <c r="A237" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1">
       <c r="A238" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1">
       <c r="A239" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1">
       <c r="A240" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1">
       <c r="A241" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1">
       <c r="A242" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1">
       <c r="A243" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1">
       <c r="A244" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1">
       <c r="A245" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1">
       <c r="A246" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1">
       <c r="A247" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1">
       <c r="A248" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1">
       <c r="A249" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1">
       <c r="A250" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1">
       <c r="A251" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1">
       <c r="A252" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1">
       <c r="A253" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1">
       <c r="A254" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1">
       <c r="A255" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1">
       <c r="A256" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1">
       <c r="A257" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1">
       <c r="A258" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1">
       <c r="A259" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1">
       <c r="A260" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1">
       <c r="A261" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1">
       <c r="A262" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1">
       <c r="A263" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1">
       <c r="A264" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1">
       <c r="A265" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1">
       <c r="A266" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1">
       <c r="A267" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1">
       <c r="A268" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1">
       <c r="A269" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1">
       <c r="A270" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1">
       <c r="A271" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1">
       <c r="A272" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1">
       <c r="A273" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1">
       <c r="A275" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1">
       <c r="A276" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1">
       <c r="A277" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1">
       <c r="A278" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1">
       <c r="A279" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1">
       <c r="A281" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1">
       <c r="A282" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1">
       <c r="A283" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1">
       <c r="A284" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1">
       <c r="A285" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1">
       <c r="A286" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1">
       <c r="A287" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1">
       <c r="A288" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1">
       <c r="A289" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1">
       <c r="A290" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1">
       <c r="A291" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1">
       <c r="A292" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1">
       <c r="A293" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1">
       <c r="A295" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1">
       <c r="A296" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1">
       <c r="A297" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1">
       <c r="A298" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1">
       <c r="A299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1">
       <c r="A300" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1">
       <c r="A301" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1">
       <c r="A302" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1">
       <c r="A303" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1">
       <c r="A304" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1">
       <c r="A305" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1">
       <c r="A306" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1">
       <c r="A307" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1">
       <c r="A308" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1">
       <c r="A309" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1">
       <c r="A310" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1">
       <c r="A311" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1">
       <c r="A312" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1">
       <c r="A313" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1">
       <c r="A314" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1">
       <c r="A315" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1">
       <c r="A316" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1">
       <c r="A317" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1">
       <c r="A318" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1">
       <c r="A319" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1">
       <c r="A320" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1">
       <c r="A321" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1">
       <c r="A322" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1">
       <c r="A326" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1">
       <c r="A328" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1">
       <c r="A329" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1">
       <c r="A333" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1">
       <c r="A334" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1">
       <c r="A335" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1">
       <c r="A336" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1">
       <c r="A337" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1">
       <c r="A338" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1">
       <c r="A340" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1">
       <c r="A341" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1">
       <c r="A342" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1">
       <c r="A343" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1">
       <c r="A344" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1">
       <c r="A345" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1">
       <c r="A347" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1">
       <c r="A348" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1">
       <c r="A349" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1">
       <c r="A350" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1">
       <c r="A351" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1">
       <c r="A352" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1">
       <c r="A353" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1">
       <c r="A354" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1">
       <c r="A355" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1">
       <c r="A356" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1">
       <c r="A357" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1">
       <c r="A358" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1">
       <c r="A359" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1">
       <c r="A360" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1">
       <c r="A361" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1">
       <c r="A362" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1">
       <c r="A363" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1">
       <c r="A364" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1">
       <c r="A365" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1">
       <c r="A366" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1">
       <c r="A367" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1">
       <c r="A368" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1">
       <c r="A369" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1">
       <c r="A370" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1">
       <c r="A371" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1">
       <c r="A372" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1">
       <c r="A373" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1">
       <c r="A374" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1">
       <c r="A375" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1">
       <c r="A376" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1">
       <c r="A377" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1">
       <c r="A378" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1">
       <c r="A379" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1">
       <c r="A380" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1">
       <c r="A381" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1">
       <c r="A382" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1">
       <c r="A383" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1">
       <c r="A384" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1">
       <c r="A385" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1">
       <c r="A386" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1">
       <c r="A387" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1">
       <c r="A388" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1">
       <c r="A389" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1">
       <c r="A390" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1">
       <c r="A391" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1">
       <c r="A392" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1">
       <c r="A393" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1">
       <c r="A394" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1">
       <c r="A395" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1">
       <c r="A396" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1">
       <c r="A397" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1">
       <c r="A398" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1">
       <c r="A399" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1">
       <c r="A400" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1">
       <c r="A401" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1">
       <c r="A402" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1">
       <c r="A403" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1">
       <c r="A404" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1">
       <c r="A405" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1">
       <c r="A406" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1">
       <c r="A407" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1">
       <c r="A408" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1">
       <c r="A409" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1">
       <c r="A410" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1">
       <c r="A411" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1">
       <c r="A412" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1">
       <c r="A413" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1">
       <c r="A414" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1">
       <c r="A415" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1">
       <c r="A416" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1">
       <c r="A417" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1">
       <c r="A418" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1">
       <c r="A419" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1">
       <c r="A420" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1">
       <c r="A421" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1">
       <c r="A422" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1">
       <c r="A423" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1">
       <c r="A424" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1">
       <c r="A425" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1">
       <c r="A426" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1">
       <c r="A427" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1">
       <c r="A428" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1">
       <c r="A429" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1">
       <c r="A430" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1">
       <c r="A431" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1">
       <c r="A432" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1">
       <c r="A433" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1">
       <c r="A434" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1">
       <c r="A435" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1">
       <c r="A436" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1">
       <c r="A437" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1">
       <c r="A438" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1">
       <c r="A439" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1">
       <c r="A440" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1">
       <c r="A441" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1">
       <c r="A442" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1">
       <c r="A443" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1">
       <c r="A444" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1">
       <c r="A445" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1">
       <c r="A446" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1">
       <c r="A447" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1">
       <c r="A448" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1">
       <c r="A449" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1">
       <c r="A450" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1">
       <c r="A451" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1">
       <c r="A452" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1">
       <c r="A453" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1">
       <c r="A454" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1">
       <c r="A455" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1">
       <c r="A456" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1">
       <c r="A457" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1">
       <c r="A458" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1">
       <c r="A459" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1">
       <c r="A460" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1">
       <c r="A461" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1">
       <c r="A462" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1">
       <c r="A463" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1">
       <c r="A464" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1">
       <c r="A465" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1">
       <c r="A466" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1">
       <c r="A467" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1">
       <c r="A468" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1">
       <c r="A469" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1">
       <c r="A470" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1">
       <c r="A471" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1">
       <c r="A472" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1">
       <c r="A473" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1">
       <c r="A474" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1">
       <c r="A475" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1">
       <c r="A476" t="s">
         <v>1</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B675FF0-F945-D442-87CC-B47AB2C006FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F6F6E7-5AA8-0A4F-A200-8C3F5A3E547B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="560">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2115,11 +2115,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缺席;不在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>be about to do sth. when</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺席；不在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be absorbed in doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客观接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have access to sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有权利做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全神贯注于某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the traffic accident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通事故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>according to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>because of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于；因为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuse sb. of sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指责某人某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge sb. with sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指控某人某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admire sb. for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钦佩某人某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scold sb. for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责备某人某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blame sb. for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb. be to blame for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be used to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被用来做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去常常做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be/get used to doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯于做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve the goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take sth. into account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2448,16 +2588,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B266"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="169" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -4575,7 +4715,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>520</v>
@@ -4586,7 +4726,159 @@
         <v>522</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B675FF0-F945-D442-87CC-B47AB2C006FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607D01D-7110-425A-B5C7-E5B3E873EB41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="词组" sheetId="1" r:id="rId1"/>
     <sheet name="打卡" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="779">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2115,19 +2115,1035 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缺席;不在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>be about to do sth. when</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺席；不在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be absorbed in doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客观接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have access to sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有权利做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全神贯注于某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the traffic accident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通事故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>according to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>because of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于；因为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuse sb. of sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指责某人某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge sb. with sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指控某人某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admire sb. for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钦佩某人某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scold sb. for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责备某人某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blame sb. for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb. be to blame for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be used to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被用来做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去常常做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be/get used to doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯于做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve the goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take sth. into account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担当；充当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采取行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take measures to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be active in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某方面积极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take an active part in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapt to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领养某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a matter of fact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add up to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add to the beauty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增添美景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add to the difficulty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增添难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admit doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deny doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否认做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be admitted to school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be admitted into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许入内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被录取进入学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahead of time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take advantage of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make use of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take ones advice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给某人忠告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give sb. advice on sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听取某人的忠告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采纳某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承认做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be afraid of doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be afraid to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在早晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on Sunday morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在周日早晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以某人的年龄来说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答应做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree with sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意某人的观点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree with what sb. said</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree with the climate/food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气候/食物的适合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree on sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对意见一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first of all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for ones age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all over the world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界各地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not at all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点也不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>almost not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not nearly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get along/on well with sb./sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和相处很好；进展很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have no choice but to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除以外别无选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be always doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老是做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be amazed at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be surprised at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be astonished at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对惊讶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be pleased with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be happy with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be satisfied with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speak aloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说出声音来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a big effect on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对有重大影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be angry about sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be angry at sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对愤怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be angry with sb. for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be hard on sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be strict with sb. in sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对严厉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be worried about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be anxious about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对担心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be ashamed of sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be shy of sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对感到惭愧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be eager to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be anxious to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hope for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be dying for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be anxious for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望得到某物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通向；导致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one after another</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个接一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in default of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于缺乏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>derive from</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自；源自</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprive sb. of sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥夺某人的某物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be inclined to do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向于做某事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at the expense of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以…为代价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank among</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于…之列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beyond within the realms of possibility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出/在可能的范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on the spur of the moment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一时冲动；当即</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strip/deprive sb. of sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strip off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥去；脱掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrate … with/into</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使…与…结合在一起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决心做好某事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit a crime/mistake/foul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯罪/错/规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrap…in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用…把…包裹好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of the blue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出乎意料地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>once in a blue moon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难得一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a bolt from the blue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天霹雳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>look blue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闷闷不乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make capital out of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrug off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对...满不在乎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spit out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严厉说出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sponge off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>揩油；蹭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank as</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run riot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒野；胡作非为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>with reference to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于；就..而论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preference for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a substitute for sb./sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某人/某物的替代者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用…代替</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitute for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be equal to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜任的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react against</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反对；反抗；反动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react on sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对某事有影响；起作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对…起化学反应；回应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react with sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起化学反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>respond to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答；答复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be uneasy about</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对…担心或不安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propose a toast to sb.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向某人敬酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>give full scope for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予充分发挥…的天地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be sensible of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可察觉出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be sensitive about/to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对…敏感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelter from</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护；庇护…以免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceal sth. from sb.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proficiency in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to extremes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走极端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the extreme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>及其；非常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall victim to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为…的牺牲品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteer (sth.) for sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自愿或无偿地给予或提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be immune to the disease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对该病有免疫力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be immune from taxation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免除捐税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in excess of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to excess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过分；过量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shed light on</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阐明；是明白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take/accept a bribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受贿赂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2139,6 +3155,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2163,10 +3186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2448,20 +3474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B266"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2469,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2477,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2485,7 +3511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +3519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +3527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2509,7 +3535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2525,7 +3551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2533,7 +3559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2541,7 +3567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2549,7 +3575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2557,7 +3583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2565,7 +3591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2573,7 +3599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2581,7 +3607,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2589,7 +3615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -2597,7 +3623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2605,7 +3631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2613,7 +3639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2621,7 +3647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2629,7 +3655,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2637,7 +3663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2645,7 +3671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2653,7 +3679,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -2661,7 +3687,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -2669,7 +3695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -2677,7 +3703,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +3711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -2693,7 +3719,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -2701,7 +3727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2709,7 +3735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -2717,7 +3743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2725,7 +3751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2733,7 +3759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -2741,7 +3767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -2749,7 +3775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -2757,7 +3783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -2765,7 +3791,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -2773,7 +3799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -2781,7 +3807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -2789,7 +3815,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -2797,7 +3823,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -2805,7 +3831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -2813,7 +3839,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
@@ -2821,7 +3847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -2829,7 +3855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -2837,7 +3863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -2845,7 +3871,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -2853,7 +3879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -2861,7 +3887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -2869,7 +3895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -2877,7 +3903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>99</v>
       </c>
@@ -2885,7 +3911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
@@ -2893,7 +3919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -2901,7 +3927,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -2909,7 +3935,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
@@ -2917,7 +3943,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -2925,7 +3951,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
@@ -2933,7 +3959,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
@@ -2941,7 +3967,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -2949,7 +3975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -2957,7 +3983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
@@ -2965,7 +3991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -2973,7 +3999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -2981,7 +4007,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
@@ -2989,7 +4015,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
@@ -2997,7 +4023,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -3005,7 +4031,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>131</v>
       </c>
@@ -3013,7 +4039,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -3021,7 +4047,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -3029,7 +4055,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>139</v>
       </c>
@@ -3037,7 +4063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>141</v>
       </c>
@@ -3045,7 +4071,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>143</v>
       </c>
@@ -3053,7 +4079,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>145</v>
       </c>
@@ -3061,7 +4087,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
@@ -3069,7 +4095,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
@@ -3077,7 +4103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>151</v>
       </c>
@@ -3085,7 +4111,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>153</v>
       </c>
@@ -3093,7 +4119,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
@@ -3101,7 +4127,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>156</v>
       </c>
@@ -3109,7 +4135,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
@@ -3117,7 +4143,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -3125,7 +4151,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
@@ -3133,7 +4159,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
@@ -3141,7 +4167,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>167</v>
       </c>
@@ -3149,7 +4175,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
@@ -3157,7 +4183,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
@@ -3165,7 +4191,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>172</v>
       </c>
@@ -3173,7 +4199,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -3181,7 +4207,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
@@ -3189,7 +4215,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
@@ -3197,7 +4223,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
@@ -3205,7 +4231,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
@@ -3213,7 +4239,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
@@ -3221,7 +4247,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>187</v>
       </c>
@@ -3229,7 +4255,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>189</v>
       </c>
@@ -3237,7 +4263,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>191</v>
       </c>
@@ -3245,7 +4271,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>193</v>
       </c>
@@ -3253,7 +4279,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>195</v>
       </c>
@@ -3261,7 +4287,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
@@ -3269,7 +4295,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>199</v>
       </c>
@@ -3277,7 +4303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>201</v>
       </c>
@@ -3285,7 +4311,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>203</v>
       </c>
@@ -3293,7 +4319,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>205</v>
       </c>
@@ -3301,7 +4327,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>207</v>
       </c>
@@ -3309,7 +4335,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>209</v>
       </c>
@@ -3317,7 +4343,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>211</v>
       </c>
@@ -3325,7 +4351,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>213</v>
       </c>
@@ -3333,7 +4359,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>215</v>
       </c>
@@ -3341,7 +4367,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>217</v>
       </c>
@@ -3349,7 +4375,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>219</v>
       </c>
@@ -3357,7 +4383,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>221</v>
       </c>
@@ -3365,7 +4391,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
@@ -3373,7 +4399,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
@@ -3381,7 +4407,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>226</v>
       </c>
@@ -3389,7 +4415,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>228</v>
       </c>
@@ -3397,7 +4423,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>231</v>
       </c>
@@ -3405,7 +4431,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
@@ -3413,7 +4439,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -3421,7 +4447,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -3429,7 +4455,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -3437,7 +4463,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -3445,7 +4471,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -3453,7 +4479,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -3461,7 +4487,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -3469,7 +4495,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -3477,7 +4503,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>254</v>
       </c>
@@ -3485,7 +4511,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -3493,7 +4519,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -3501,7 +4527,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -3509,7 +4535,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -3517,7 +4543,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>264</v>
       </c>
@@ -3525,7 +4551,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -3533,7 +4559,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -3541,7 +4567,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -3549,7 +4575,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>271</v>
       </c>
@@ -3557,7 +4583,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>273</v>
       </c>
@@ -3565,7 +4591,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
@@ -3573,7 +4599,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>279</v>
       </c>
@@ -3581,7 +4607,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>281</v>
       </c>
@@ -3589,7 +4615,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>283</v>
       </c>
@@ -3597,7 +4623,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>285</v>
       </c>
@@ -3605,7 +4631,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>287</v>
       </c>
@@ -3613,7 +4639,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>289</v>
       </c>
@@ -3621,7 +4647,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>291</v>
       </c>
@@ -3629,7 +4655,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>293</v>
       </c>
@@ -3637,7 +4663,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>295</v>
       </c>
@@ -3645,7 +4671,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>297</v>
       </c>
@@ -3653,7 +4679,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>299</v>
       </c>
@@ -3661,7 +4687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>326</v>
       </c>
@@ -3669,7 +4695,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>302</v>
       </c>
@@ -3677,7 +4703,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>304</v>
       </c>
@@ -3685,7 +4711,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
@@ -3693,7 +4719,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>307</v>
       </c>
@@ -3701,7 +4727,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>309</v>
       </c>
@@ -3709,7 +4735,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>311</v>
       </c>
@@ -3717,7 +4743,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>313</v>
       </c>
@@ -3725,7 +4751,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>315</v>
       </c>
@@ -3733,7 +4759,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>317</v>
       </c>
@@ -3741,7 +4767,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>319</v>
       </c>
@@ -3749,7 +4775,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>321</v>
       </c>
@@ -3757,7 +4783,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>323</v>
       </c>
@@ -3765,7 +4791,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>327</v>
       </c>
@@ -3773,7 +4799,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>329</v>
       </c>
@@ -3781,7 +4807,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>331</v>
       </c>
@@ -3789,7 +4815,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>333</v>
       </c>
@@ -3797,7 +4823,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>335</v>
       </c>
@@ -3805,7 +4831,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>337</v>
       </c>
@@ -3813,7 +4839,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>339</v>
       </c>
@@ -3821,7 +4847,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>341</v>
       </c>
@@ -3829,7 +4855,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>343</v>
       </c>
@@ -3837,756 +4863,1868 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="1" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="1" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="1" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="1" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="1" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="1" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="1" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="1" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="1" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="1" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="1" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="1" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="1" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="1" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="1" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="1" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="1" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="1" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="1" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="1" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="1" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="1" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="1" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="1" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="1" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="1" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>523</v>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -4604,2384 +6742,2384 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F6F6E7-5AA8-0A4F-A200-8C3F5A3E547B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607D01D-7110-425A-B5C7-E5B3E873EB41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="词组" sheetId="1" r:id="rId1"/>
     <sheet name="打卡" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="779">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2261,13 +2261,889 @@
   <si>
     <t>take sth. into account</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担当；充当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采取行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take measures to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be active in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某方面积极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take an active part in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapt to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领养某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a matter of fact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add up to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add to the beauty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增添美景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add to the difficulty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增添难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admit doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deny doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否认做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be admitted to school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be admitted into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许入内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被录取进入学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahead of time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take advantage of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make use of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take ones advice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给某人忠告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give sb. advice on sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听取某人的忠告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采纳某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承认做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be afraid of doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be afraid to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在早晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on Sunday morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在周日早晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以某人的年龄来说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答应做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree with sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意某人的观点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree with what sb. said</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree with the climate/food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气候/食物的适合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree on sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对意见一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first of all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for ones age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all over the world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界各地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not at all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点也不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>almost not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not nearly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get along/on well with sb./sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和相处很好；进展很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have no choice but to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除以外别无选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be always doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老是做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be amazed at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be surprised at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be astonished at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对惊讶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be pleased with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be happy with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be satisfied with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speak aloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说出声音来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a big effect on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对有重大影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be angry about sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be angry at sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对愤怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be angry with sb. for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be hard on sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be strict with sb. in sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对严厉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be worried about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be anxious about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对担心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be ashamed of sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be shy of sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对感到惭愧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be eager to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be anxious to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hope for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be dying for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be anxious for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望得到某物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通向；导致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one after another</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个接一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in default of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于缺乏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>derive from</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自；源自</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprive sb. of sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥夺某人的某物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be inclined to do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向于做某事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at the expense of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以…为代价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank among</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于…之列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beyond within the realms of possibility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出/在可能的范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on the spur of the moment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一时冲动；当即</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strip/deprive sb. of sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strip off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥去；脱掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrate … with/into</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使…与…结合在一起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决心做好某事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit a crime/mistake/foul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯罪/错/规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrap…in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用…把…包裹好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of the blue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出乎意料地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>once in a blue moon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难得一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a bolt from the blue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天霹雳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>look blue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闷闷不乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make capital out of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrug off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对...满不在乎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spit out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严厉说出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sponge off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>揩油；蹭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank as</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run riot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒野；胡作非为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>with reference to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于；就..而论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preference for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a substitute for sb./sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某人/某物的替代者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用…代替</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitute for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be equal to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜任的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react against</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反对；反抗；反动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react on sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对某事有影响；起作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对…起化学反应；回应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>react with sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起化学反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>respond to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答；答复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be uneasy about</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对…担心或不安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propose a toast to sb.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向某人敬酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>give full scope for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予充分发挥…的天地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be sensible of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可察觉出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be sensitive about/to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对…敏感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelter from</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护；庇护…以免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceal sth. from sb.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proficiency in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to extremes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走极端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the extreme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>及其；非常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall victim to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为…的牺牲品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteer (sth.) for sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自愿或无偿地给予或提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be immune to the disease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对该病有免疫力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be immune from taxation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免除捐税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in excess of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to excess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过分；过量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shed light on</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阐明；是明白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take/accept a bribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受贿赂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2279,6 +3155,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2303,10 +3186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2588,20 +3474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="169" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2609,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2617,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2625,7 +3511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2633,7 +3519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2641,7 +3527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2649,7 +3535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2657,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2665,7 +3551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2673,7 +3559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2681,7 +3567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2689,7 +3575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2697,7 +3583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2705,7 +3591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2713,7 +3599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2721,7 +3607,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2729,7 +3615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -2737,7 +3623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,7 +3631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2753,7 +3639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2761,7 +3647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2769,7 +3655,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2777,7 +3663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2785,7 +3671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2793,7 +3679,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -2801,7 +3687,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -2809,7 +3695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -2817,7 +3703,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -2825,7 +3711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -2833,7 +3719,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -2841,7 +3727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2849,7 +3735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -2857,7 +3743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2865,7 +3751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2873,7 +3759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -2881,7 +3767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -2889,7 +3775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -2897,7 +3783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -2905,7 +3791,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -2913,7 +3799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -2921,7 +3807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -2929,7 +3815,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -2937,7 +3823,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -2945,7 +3831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -2953,7 +3839,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
@@ -2961,7 +3847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -2969,7 +3855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -2977,7 +3863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -2985,7 +3871,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -2993,7 +3879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -3001,7 +3887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -3009,7 +3895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -3017,7 +3903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>99</v>
       </c>
@@ -3025,7 +3911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
@@ -3033,7 +3919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -3041,7 +3927,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -3049,7 +3935,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
@@ -3057,7 +3943,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -3065,7 +3951,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
@@ -3073,7 +3959,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
@@ -3081,7 +3967,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -3089,7 +3975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -3097,7 +3983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
@@ -3105,7 +3991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -3113,7 +3999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -3121,7 +4007,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
@@ -3129,7 +4015,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
@@ -3137,7 +4023,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -3145,7 +4031,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>131</v>
       </c>
@@ -3153,7 +4039,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -3161,7 +4047,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -3169,7 +4055,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>139</v>
       </c>
@@ -3177,7 +4063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>141</v>
       </c>
@@ -3185,7 +4071,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>143</v>
       </c>
@@ -3193,7 +4079,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>145</v>
       </c>
@@ -3201,7 +4087,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
@@ -3209,7 +4095,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
@@ -3217,7 +4103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>151</v>
       </c>
@@ -3225,7 +4111,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>153</v>
       </c>
@@ -3233,7 +4119,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
@@ -3241,7 +4127,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>156</v>
       </c>
@@ -3249,7 +4135,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
@@ -3257,7 +4143,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -3265,7 +4151,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
@@ -3273,7 +4159,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
@@ -3281,7 +4167,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>167</v>
       </c>
@@ -3289,7 +4175,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
@@ -3297,7 +4183,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
@@ -3305,7 +4191,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>172</v>
       </c>
@@ -3313,7 +4199,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -3321,7 +4207,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
@@ -3329,7 +4215,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
@@ -3337,7 +4223,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
@@ -3345,7 +4231,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
@@ -3353,7 +4239,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
@@ -3361,7 +4247,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>187</v>
       </c>
@@ -3369,7 +4255,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>189</v>
       </c>
@@ -3377,7 +4263,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>191</v>
       </c>
@@ -3385,7 +4271,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>193</v>
       </c>
@@ -3393,7 +4279,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>195</v>
       </c>
@@ -3401,7 +4287,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
@@ -3409,7 +4295,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>199</v>
       </c>
@@ -3417,7 +4303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>201</v>
       </c>
@@ -3425,7 +4311,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>203</v>
       </c>
@@ -3433,7 +4319,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>205</v>
       </c>
@@ -3441,7 +4327,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>207</v>
       </c>
@@ -3449,7 +4335,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>209</v>
       </c>
@@ -3457,7 +4343,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>211</v>
       </c>
@@ -3465,7 +4351,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>213</v>
       </c>
@@ -3473,7 +4359,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>215</v>
       </c>
@@ -3481,7 +4367,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>217</v>
       </c>
@@ -3489,7 +4375,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>219</v>
       </c>
@@ -3497,7 +4383,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>221</v>
       </c>
@@ -3505,7 +4391,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
@@ -3513,7 +4399,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
@@ -3521,7 +4407,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>226</v>
       </c>
@@ -3529,7 +4415,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>228</v>
       </c>
@@ -3537,7 +4423,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>231</v>
       </c>
@@ -3545,7 +4431,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
@@ -3553,7 +4439,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -3561,7 +4447,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -3569,7 +4455,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -3577,7 +4463,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -3585,7 +4471,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -3593,7 +4479,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -3601,7 +4487,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -3609,7 +4495,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -3617,7 +4503,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>254</v>
       </c>
@@ -3625,7 +4511,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -3633,7 +4519,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -3641,7 +4527,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -3649,7 +4535,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -3657,7 +4543,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>264</v>
       </c>
@@ -3665,7 +4551,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -3673,7 +4559,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -3681,7 +4567,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -3689,7 +4575,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>271</v>
       </c>
@@ -3697,7 +4583,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>273</v>
       </c>
@@ -3705,7 +4591,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
@@ -3713,7 +4599,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>279</v>
       </c>
@@ -3721,7 +4607,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>281</v>
       </c>
@@ -3729,7 +4615,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>283</v>
       </c>
@@ -3737,7 +4623,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>285</v>
       </c>
@@ -3745,7 +4631,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>287</v>
       </c>
@@ -3753,7 +4639,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>289</v>
       </c>
@@ -3761,7 +4647,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>291</v>
       </c>
@@ -3769,7 +4655,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>293</v>
       </c>
@@ -3777,7 +4663,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>295</v>
       </c>
@@ -3785,7 +4671,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>297</v>
       </c>
@@ -3793,7 +4679,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>299</v>
       </c>
@@ -3801,7 +4687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>326</v>
       </c>
@@ -3809,7 +4695,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>302</v>
       </c>
@@ -3817,7 +4703,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>304</v>
       </c>
@@ -3825,7 +4711,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
@@ -3833,7 +4719,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>307</v>
       </c>
@@ -3841,7 +4727,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>309</v>
       </c>
@@ -3849,7 +4735,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>311</v>
       </c>
@@ -3857,7 +4743,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>313</v>
       </c>
@@ -3865,7 +4751,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>315</v>
       </c>
@@ -3873,7 +4759,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>317</v>
       </c>
@@ -3881,7 +4767,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>319</v>
       </c>
@@ -3889,7 +4775,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>321</v>
       </c>
@@ -3897,7 +4783,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>323</v>
       </c>
@@ -3905,7 +4791,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>327</v>
       </c>
@@ -3913,7 +4799,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>329</v>
       </c>
@@ -3921,7 +4807,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>331</v>
       </c>
@@ -3929,7 +4815,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>333</v>
       </c>
@@ -3937,7 +4823,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>335</v>
       </c>
@@ -3945,7 +4831,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>337</v>
       </c>
@@ -3953,7 +4839,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>339</v>
       </c>
@@ -3961,7 +4847,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>341</v>
       </c>
@@ -3969,7 +4855,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>343</v>
       </c>
@@ -3977,908 +4863,1868 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="1" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="1" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="1" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="1" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="1" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="1" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="1" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="1" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="1" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="1" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="1" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="1" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="1" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="1" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="1" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="1" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="1" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="1" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="1" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="1" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="1" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="1" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="1" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="1" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="1" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="1" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="1" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="1" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B269" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="1" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="1" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="1" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="1" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B275" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B285" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>558</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -4896,2384 +6742,2384 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607D01D-7110-425A-B5C7-E5B3E873EB41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF303C73-C723-DE4E-9AF3-9EC59341D1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="词组" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="634">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2551,599 +2551,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get along/on well with sb./sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和相处很好；进展很好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>have no choice but to do sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除以外别无选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be always doing sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老是做某事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be amazed at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be surprised at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be astonished at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对惊讶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be pleased with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be happy with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be satisfied with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对满意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speak aloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说出声音来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>have a big effect on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对有重大影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be angry about sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be angry at sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对愤怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be angry with sb. for sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be hard on sb.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be strict with sb. in sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对严厉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be worried about</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be anxious about</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对担心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be ashamed of sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be shy of sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对感到惭愧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be eager to do sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be anxious to do sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渴望做某事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long for sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hope for sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be dying for sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be anxious for sth.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渴望得到某物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通向；导致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>one after another</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个接一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in default of</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于缺乏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>derive from</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自；源自</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deprive sb. of sth.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剥夺某人的某物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>be inclined to do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾向于做某事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>at the expense of</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以…为代价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank among</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属于…之列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beyond within the realms of possibility</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超出/在可能的范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>on the spur of the moment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一时冲动；当即</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>strip/deprive sb. of sth.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>strip off</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剥去；脱掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>integrate … with/into</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使…与…结合在一起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>commit to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>决心做好某事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>commit a crime/mistake/foul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>犯罪/错/规</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrap…in</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用…把…包裹好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>out of the blue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出乎意料地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>once in a blue moon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>难得一次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a bolt from the blue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴天霹雳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>look blue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闷闷不乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>make capital out of</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shrug off</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对...满不在乎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spit out</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>严厉说出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sponge off</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>揩油；蹭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank as</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>run riot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒野；胡作非为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>with reference to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于；就..而论</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>preference for</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏爱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a substitute for sb./sth.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>某人/某物的替代者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用…代替</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>substitute for</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代替</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>be equal to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜任的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>react against</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反对；反抗；反动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>react on sth.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对某事有影响；起作用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>react to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对…起化学反应；回应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>react with sth.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>起化学反应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>respond to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答；答复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>be uneasy about</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对…担心或不安</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>propose a toast to sb.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向某人敬酒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>give full scope for</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予充分发挥…的天地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>be sensible of</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可察觉出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>be sensitive about/to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对…敏感</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shelter from</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护；庇护…以免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conceal sth. from sb.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>proficiency in</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>go to extremes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>走极端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>in the extreme</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>及其；非常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fall victim to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成为…的牺牲品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>volunteer (sth.) for sth.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自愿或无偿地给予或提供</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>be immune to the disease</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对该病有免疫力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>be immune from taxation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>免除捐税</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>in excess of</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>to excess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过分；过量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shed light on</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阐明；是明白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>take/accept a bribe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受贿赂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3155,13 +2575,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3186,13 +2599,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3474,20 +2884,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B373" sqref="B373"/>
+    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="200" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3495,7 +2905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3503,7 +2913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +2921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3519,7 +2929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3527,7 +2937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3535,7 +2945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3551,7 +2961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3559,7 +2969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3567,7 +2977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3575,7 +2985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -3583,7 +2993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3591,7 +3001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3599,7 +3009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3607,7 +3017,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3615,7 +3025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -3623,7 +3033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3631,7 +3041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -3639,7 +3049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -3647,7 +3057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3655,7 +3065,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3663,7 +3073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3671,7 +3081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -3679,7 +3089,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -3687,7 +3097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -3695,7 +3105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -3703,7 +3113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -3711,7 +3121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -3719,7 +3129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -3727,7 +3137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -3735,7 +3145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -3743,7 +3153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -3751,7 +3161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -3759,7 +3169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -3767,7 +3177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -3775,7 +3185,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -3783,7 +3193,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -3791,7 +3201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -3799,7 +3209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,7 +3217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -3815,7 +3225,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -3823,7 +3233,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -3831,7 +3241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -3839,7 +3249,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
@@ -3847,7 +3257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -3855,7 +3265,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -3863,7 +3273,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -3871,7 +3281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -3879,7 +3289,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -3887,7 +3297,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -3895,7 +3305,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -3903,7 +3313,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>99</v>
       </c>
@@ -3911,7 +3321,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
@@ -3919,7 +3329,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -3927,7 +3337,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -3935,7 +3345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
@@ -3943,7 +3353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -3951,7 +3361,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
@@ -3959,7 +3369,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
@@ -3967,7 +3377,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -3975,7 +3385,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -3983,7 +3393,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
@@ -3991,7 +3401,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -3999,7 +3409,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -4007,7 +3417,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
@@ -4015,7 +3425,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
@@ -4023,7 +3433,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -4031,7 +3441,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>131</v>
       </c>
@@ -4039,7 +3449,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -4047,7 +3457,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -4055,7 +3465,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>139</v>
       </c>
@@ -4063,7 +3473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>141</v>
       </c>
@@ -4071,7 +3481,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>143</v>
       </c>
@@ -4079,7 +3489,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>145</v>
       </c>
@@ -4087,7 +3497,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
@@ -4095,7 +3505,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
@@ -4103,7 +3513,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>151</v>
       </c>
@@ -4111,7 +3521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>153</v>
       </c>
@@ -4119,7 +3529,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
@@ -4127,7 +3537,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>156</v>
       </c>
@@ -4135,7 +3545,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
@@ -4143,7 +3553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -4151,7 +3561,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
@@ -4159,7 +3569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
@@ -4167,7 +3577,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>167</v>
       </c>
@@ -4175,7 +3585,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
@@ -4183,7 +3593,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
@@ -4191,7 +3601,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>172</v>
       </c>
@@ -4199,7 +3609,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -4207,7 +3617,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
@@ -4215,7 +3625,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
@@ -4223,7 +3633,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
@@ -4231,7 +3641,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
@@ -4239,7 +3649,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
@@ -4247,7 +3657,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>187</v>
       </c>
@@ -4255,7 +3665,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>189</v>
       </c>
@@ -4263,7 +3673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>191</v>
       </c>
@@ -4271,7 +3681,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>193</v>
       </c>
@@ -4279,7 +3689,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>195</v>
       </c>
@@ -4287,7 +3697,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
@@ -4295,7 +3705,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>199</v>
       </c>
@@ -4303,7 +3713,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>201</v>
       </c>
@@ -4311,7 +3721,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>203</v>
       </c>
@@ -4319,7 +3729,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>205</v>
       </c>
@@ -4327,7 +3737,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>207</v>
       </c>
@@ -4335,7 +3745,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>209</v>
       </c>
@@ -4343,7 +3753,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>211</v>
       </c>
@@ -4351,7 +3761,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>213</v>
       </c>
@@ -4359,7 +3769,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>215</v>
       </c>
@@ -4367,7 +3777,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>217</v>
       </c>
@@ -4375,7 +3785,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>219</v>
       </c>
@@ -4383,7 +3793,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
         <v>221</v>
       </c>
@@ -4391,7 +3801,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
@@ -4399,7 +3809,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
@@ -4407,7 +3817,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>226</v>
       </c>
@@ -4415,7 +3825,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>228</v>
       </c>
@@ -4423,7 +3833,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>231</v>
       </c>
@@ -4431,7 +3841,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
@@ -4439,7 +3849,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -4447,7 +3857,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -4455,7 +3865,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -4463,7 +3873,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -4471,7 +3881,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -4479,7 +3889,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -4487,7 +3897,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -4495,7 +3905,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -4503,7 +3913,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
         <v>254</v>
       </c>
@@ -4511,7 +3921,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -4519,7 +3929,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -4527,7 +3937,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -4535,7 +3945,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -4543,7 +3953,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>264</v>
       </c>
@@ -4551,7 +3961,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -4559,7 +3969,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -4567,7 +3977,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -4575,7 +3985,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
         <v>271</v>
       </c>
@@ -4583,7 +3993,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
         <v>273</v>
       </c>
@@ -4591,7 +4001,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
@@ -4599,7 +4009,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
         <v>279</v>
       </c>
@@ -4607,7 +4017,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
         <v>281</v>
       </c>
@@ -4615,7 +4025,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
         <v>283</v>
       </c>
@@ -4623,7 +4033,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
         <v>285</v>
       </c>
@@ -4631,7 +4041,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>287</v>
       </c>
@@ -4639,7 +4049,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
         <v>289</v>
       </c>
@@ -4647,7 +4057,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
         <v>291</v>
       </c>
@@ -4655,7 +4065,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
         <v>293</v>
       </c>
@@ -4663,7 +4073,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
         <v>295</v>
       </c>
@@ -4671,7 +4081,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
         <v>297</v>
       </c>
@@ -4679,7 +4089,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
         <v>299</v>
       </c>
@@ -4687,7 +4097,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
         <v>326</v>
       </c>
@@ -4695,7 +4105,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
         <v>302</v>
       </c>
@@ -4703,7 +4113,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
         <v>304</v>
       </c>
@@ -4711,7 +4121,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
@@ -4719,7 +4129,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
         <v>307</v>
       </c>
@@ -4727,7 +4137,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
         <v>309</v>
       </c>
@@ -4735,7 +4145,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
         <v>311</v>
       </c>
@@ -4743,7 +4153,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
         <v>313</v>
       </c>
@@ -4751,7 +4161,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
         <v>315</v>
       </c>
@@ -4759,7 +4169,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
         <v>317</v>
       </c>
@@ -4767,7 +4177,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
         <v>319</v>
       </c>
@@ -4775,7 +4185,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
         <v>321</v>
       </c>
@@ -4783,7 +4193,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
         <v>323</v>
       </c>
@@ -4791,7 +4201,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
         <v>327</v>
       </c>
@@ -4799,7 +4209,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
         <v>329</v>
       </c>
@@ -4807,7 +4217,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
         <v>331</v>
       </c>
@@ -4815,7 +4225,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
         <v>333</v>
       </c>
@@ -4823,7 +4233,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
         <v>335</v>
       </c>
@@ -4831,7 +4241,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
         <v>337</v>
       </c>
@@ -4839,7 +4249,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
         <v>339</v>
       </c>
@@ -4847,7 +4257,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
         <v>341</v>
       </c>
@@ -4855,7 +4265,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
         <v>343</v>
       </c>
@@ -4863,7 +4273,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
         <v>577</v>
       </c>
@@ -4871,7 +4281,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
@@ -4879,7 +4289,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
         <v>347</v>
       </c>
@@ -4887,7 +4297,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
         <v>348</v>
       </c>
@@ -4895,7 +4305,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
         <v>350</v>
       </c>
@@ -4903,7 +4313,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
         <v>352</v>
       </c>
@@ -4911,7 +4321,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
         <v>353</v>
       </c>
@@ -4919,7 +4329,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
         <v>357</v>
       </c>
@@ -4927,7 +4337,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
         <v>359</v>
       </c>
@@ -4935,7 +4345,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
         <v>361</v>
       </c>
@@ -4943,7 +4353,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
         <v>363</v>
       </c>
@@ -4951,7 +4361,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
         <v>365</v>
       </c>
@@ -4959,7 +4369,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
         <v>367</v>
       </c>
@@ -4967,7 +4377,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
         <v>369</v>
       </c>
@@ -4975,7 +4385,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
         <v>371</v>
       </c>
@@ -4983,7 +4393,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
         <v>373</v>
       </c>
@@ -4991,7 +4401,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
         <v>375</v>
       </c>
@@ -4999,7 +4409,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
         <v>377</v>
       </c>
@@ -5007,7 +4417,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
@@ -5015,7 +4425,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
         <v>381</v>
       </c>
@@ -5023,7 +4433,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
         <v>383</v>
       </c>
@@ -5031,7 +4441,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
         <v>385</v>
       </c>
@@ -5039,7 +4449,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
         <v>387</v>
       </c>
@@ -5047,7 +4457,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
         <v>389</v>
       </c>
@@ -5055,7 +4465,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
         <v>391</v>
       </c>
@@ -5063,7 +4473,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
         <v>393</v>
       </c>
@@ -5071,7 +4481,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
         <v>395</v>
       </c>
@@ -5079,7 +4489,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
         <v>397</v>
       </c>
@@ -5087,7 +4497,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
         <v>399</v>
       </c>
@@ -5095,7 +4505,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
         <v>401</v>
       </c>
@@ -5103,7 +4513,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
         <v>403</v>
       </c>
@@ -5111,7 +4521,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
         <v>405</v>
       </c>
@@ -5119,7 +4529,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
         <v>428</v>
       </c>
@@ -5127,7 +4537,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
         <v>407</v>
       </c>
@@ -5135,7 +4545,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
         <v>409</v>
       </c>
@@ -5143,7 +4553,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
         <v>411</v>
       </c>
@@ -5151,7 +4561,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
         <v>413</v>
       </c>
@@ -5159,7 +4569,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
         <v>415</v>
       </c>
@@ -5167,7 +4577,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
         <v>417</v>
       </c>
@@ -5175,7 +4585,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
         <v>419</v>
       </c>
@@ -5183,7 +4593,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>420</v>
       </c>
@@ -5191,7 +4601,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>422</v>
       </c>
@@ -5199,7 +4609,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
         <v>424</v>
       </c>
@@ -5207,7 +4617,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
         <v>426</v>
       </c>
@@ -5215,7 +4625,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
         <v>429</v>
       </c>
@@ -5223,7 +4633,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
         <v>431</v>
       </c>
@@ -5231,7 +4641,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
         <v>433</v>
       </c>
@@ -5239,7 +4649,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
         <v>435</v>
       </c>
@@ -5247,7 +4657,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
         <v>437</v>
       </c>
@@ -5255,7 +4665,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
         <v>439</v>
       </c>
@@ -5263,7 +4673,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
         <v>441</v>
       </c>
@@ -5271,7 +4681,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
         <v>443</v>
       </c>
@@ -5279,7 +4689,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>444</v>
       </c>
@@ -5287,7 +4697,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
         <v>447</v>
       </c>
@@ -5295,7 +4705,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
         <v>449</v>
       </c>
@@ -5303,7 +4713,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
         <v>451</v>
       </c>
@@ -5311,7 +4721,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
         <v>453</v>
       </c>
@@ -5319,7 +4729,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
         <v>455</v>
       </c>
@@ -5327,7 +4737,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
         <v>457</v>
       </c>
@@ -5335,7 +4745,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
         <v>459</v>
       </c>
@@ -5343,7 +4753,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
         <v>461</v>
       </c>
@@ -5351,7 +4761,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
         <v>463</v>
       </c>
@@ -5359,7 +4769,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
         <v>465</v>
       </c>
@@ -5367,7 +4777,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>467</v>
       </c>
@@ -5375,7 +4785,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
         <v>469</v>
       </c>
@@ -5383,7 +4793,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
         <v>471</v>
       </c>
@@ -5391,7 +4801,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
         <v>473</v>
       </c>
@@ -5399,7 +4809,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
         <v>475</v>
       </c>
@@ -5407,7 +4817,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
         <v>476</v>
       </c>
@@ -5415,7 +4825,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
         <v>477</v>
       </c>
@@ -5423,7 +4833,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
         <v>480</v>
       </c>
@@ -5431,7 +4841,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
         <v>482</v>
       </c>
@@ -5439,7 +4849,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
         <v>484</v>
       </c>
@@ -5447,7 +4857,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
         <v>486</v>
       </c>
@@ -5455,7 +4865,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
         <v>488</v>
       </c>
@@ -5463,7 +4873,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
         <v>490</v>
       </c>
@@ -5471,7 +4881,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
         <v>492</v>
       </c>
@@ -5479,7 +4889,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
         <v>494</v>
       </c>
@@ -5487,7 +4897,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
         <v>496</v>
       </c>
@@ -5495,7 +4905,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
         <v>498</v>
       </c>
@@ -5503,7 +4913,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
         <v>501</v>
       </c>
@@ -5511,7 +4921,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
         <v>503</v>
       </c>
@@ -5519,7 +4929,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
         <v>505</v>
       </c>
@@ -5527,7 +4937,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
         <v>506</v>
       </c>
@@ -5535,7 +4945,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
         <v>507</v>
       </c>
@@ -5543,7 +4953,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
         <v>508</v>
       </c>
@@ -5551,7 +4961,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
         <v>510</v>
       </c>
@@ -5559,7 +4969,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
         <v>511</v>
       </c>
@@ -5567,7 +4977,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
         <v>512</v>
       </c>
@@ -5575,7 +4985,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
         <v>513</v>
       </c>
@@ -5583,7 +4993,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
         <v>514</v>
       </c>
@@ -5591,7 +5001,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
         <v>515</v>
       </c>
@@ -5599,7 +5009,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
         <v>521</v>
       </c>
@@ -5607,7 +5017,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
         <v>523</v>
       </c>
@@ -5615,7 +5025,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
         <v>522</v>
       </c>
@@ -5623,7 +5033,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
         <v>525</v>
       </c>
@@ -5631,7 +5041,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
         <v>526</v>
       </c>
@@ -5639,7 +5049,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
         <v>528</v>
       </c>
@@ -5647,7 +5057,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
         <v>530</v>
       </c>
@@ -5655,7 +5065,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
         <v>533</v>
       </c>
@@ -5663,7 +5073,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
         <v>534</v>
       </c>
@@ -5671,7 +5081,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
         <v>536</v>
       </c>
@@ -5679,7 +5089,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
         <v>559</v>
       </c>
@@ -5687,7 +5097,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
         <v>539</v>
       </c>
@@ -5695,7 +5105,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
         <v>541</v>
       </c>
@@ -5703,7 +5113,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
         <v>543</v>
       </c>
@@ -5711,7 +5121,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
         <v>545</v>
       </c>
@@ -5719,7 +5129,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
         <v>547</v>
       </c>
@@ -5727,7 +5137,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
         <v>549</v>
       </c>
@@ -5735,7 +5145,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
         <v>550</v>
       </c>
@@ -5743,7 +5153,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
         <v>551</v>
       </c>
@@ -5751,7 +5161,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
         <v>553</v>
       </c>
@@ -5759,7 +5169,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
         <v>555</v>
       </c>
@@ -5767,7 +5177,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
         <v>557</v>
       </c>
@@ -5775,7 +5185,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
         <v>560</v>
       </c>
@@ -5783,7 +5193,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
         <v>562</v>
       </c>
@@ -5791,7 +5201,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
         <v>565</v>
       </c>
@@ -5799,7 +5209,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
         <v>566</v>
       </c>
@@ -5807,7 +5217,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
         <v>567</v>
       </c>
@@ -5815,7 +5225,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
         <v>570</v>
       </c>
@@ -5823,7 +5233,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
         <v>571</v>
       </c>
@@ -5831,7 +5241,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
         <v>572</v>
       </c>
@@ -5839,7 +5249,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
         <v>575</v>
       </c>
@@ -5847,7 +5257,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
         <v>576</v>
       </c>
@@ -5855,7 +5265,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
         <v>579</v>
       </c>
@@ -5863,7 +5273,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
         <v>581</v>
       </c>
@@ -5871,7 +5281,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
         <v>583</v>
       </c>
@@ -5879,7 +5289,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
         <v>585</v>
       </c>
@@ -5887,7 +5297,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
         <v>586</v>
       </c>
@@ -5895,7 +5305,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
         <v>589</v>
       </c>
@@ -5903,7 +5313,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
         <v>588</v>
       </c>
@@ -5911,7 +5321,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
         <v>592</v>
       </c>
@@ -5919,7 +5329,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
         <v>594</v>
       </c>
@@ -5927,7 +5337,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
         <v>595</v>
       </c>
@@ -5935,7 +5345,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
         <v>599</v>
       </c>
@@ -5943,7 +5353,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
         <v>597</v>
       </c>
@@ -5951,15 +5361,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
         <v>603</v>
       </c>
@@ -5967,7 +5377,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
         <v>605</v>
       </c>
@@ -5975,7 +5385,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
         <v>606</v>
       </c>
@@ -5983,7 +5393,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
         <v>608</v>
       </c>
@@ -5991,7 +5401,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
         <v>624</v>
       </c>
@@ -5999,7 +5409,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
         <v>612</v>
       </c>
@@ -6007,7 +5417,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
         <v>613</v>
       </c>
@@ -6015,7 +5425,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
         <v>615</v>
       </c>
@@ -6023,7 +5433,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
         <v>616</v>
       </c>
@@ -6031,7 +5441,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
         <v>618</v>
       </c>
@@ -6039,7 +5449,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
         <v>623</v>
       </c>
@@ -6047,7 +5457,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
         <v>621</v>
       </c>
@@ -6055,7 +5465,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
         <v>625</v>
       </c>
@@ -6063,7 +5473,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
         <v>627</v>
       </c>
@@ -6071,7 +5481,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
         <v>629</v>
       </c>
@@ -6079,652 +5489,12 @@
         <v>630</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -6742,2384 +5512,2384 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1">
       <c r="A183" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1">
       <c r="A184" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1">
       <c r="A187" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1">
       <c r="A198" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1">
       <c r="A199" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1">
       <c r="A200" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1">
       <c r="A201" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1">
       <c r="A205" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1">
       <c r="A206" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1">
       <c r="A208" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1">
       <c r="A210" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1">
       <c r="A211" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1">
       <c r="A212" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1">
       <c r="A213" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1">
       <c r="A214" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1">
       <c r="A215" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1">
       <c r="A216" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1">
       <c r="A217" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1">
       <c r="A218" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1">
       <c r="A219" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1">
       <c r="A220" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1">
       <c r="A221" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1">
       <c r="A222" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1">
       <c r="A223" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1">
       <c r="A224" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1">
       <c r="A226" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1">
       <c r="A227" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1">
       <c r="A228" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1">
       <c r="A229" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1">
       <c r="A230" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1">
       <c r="A231" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1">
       <c r="A232" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1">
       <c r="A233" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1">
       <c r="A234" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1">
       <c r="A235" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1">
       <c r="A236" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1">
       <c r="A237" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1">
       <c r="A238" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1">
       <c r="A239" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1">
       <c r="A240" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1">
       <c r="A241" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1">
       <c r="A242" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1">
       <c r="A243" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1">
       <c r="A244" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1">
       <c r="A245" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1">
       <c r="A246" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1">
       <c r="A247" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1">
       <c r="A248" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1">
       <c r="A249" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1">
       <c r="A250" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1">
       <c r="A251" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1">
       <c r="A252" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1">
       <c r="A253" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1">
       <c r="A254" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1">
       <c r="A255" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1">
       <c r="A256" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1">
       <c r="A257" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1">
       <c r="A258" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1">
       <c r="A259" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1">
       <c r="A260" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1">
       <c r="A261" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1">
       <c r="A262" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1">
       <c r="A263" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1">
       <c r="A264" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1">
       <c r="A265" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1">
       <c r="A266" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1">
       <c r="A267" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1">
       <c r="A268" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1">
       <c r="A269" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1">
       <c r="A270" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1">
       <c r="A271" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1">
       <c r="A272" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1">
       <c r="A273" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1">
       <c r="A275" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1">
       <c r="A276" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1">
       <c r="A277" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1">
       <c r="A278" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1">
       <c r="A279" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1">
       <c r="A281" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1">
       <c r="A282" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1">
       <c r="A283" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1">
       <c r="A284" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1">
       <c r="A285" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1">
       <c r="A286" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1">
       <c r="A287" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1">
       <c r="A288" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1">
       <c r="A289" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1">
       <c r="A290" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1">
       <c r="A291" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1">
       <c r="A292" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1">
       <c r="A293" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1">
       <c r="A295" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1">
       <c r="A296" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1">
       <c r="A297" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1">
       <c r="A298" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1">
       <c r="A299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1">
       <c r="A300" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1">
       <c r="A301" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1">
       <c r="A302" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1">
       <c r="A303" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1">
       <c r="A304" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1">
       <c r="A305" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1">
       <c r="A306" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1">
       <c r="A307" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1">
       <c r="A308" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1">
       <c r="A309" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1">
       <c r="A310" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1">
       <c r="A311" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1">
       <c r="A312" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1">
       <c r="A313" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1">
       <c r="A314" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1">
       <c r="A315" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1">
       <c r="A316" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1">
       <c r="A317" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1">
       <c r="A318" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1">
       <c r="A319" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1">
       <c r="A320" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1">
       <c r="A321" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1">
       <c r="A322" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1">
       <c r="A326" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1">
       <c r="A328" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1">
       <c r="A329" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1">
       <c r="A333" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1">
       <c r="A334" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1">
       <c r="A335" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1">
       <c r="A336" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1">
       <c r="A337" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1">
       <c r="A338" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1">
       <c r="A340" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1">
       <c r="A341" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1">
       <c r="A342" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1">
       <c r="A343" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1">
       <c r="A344" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1">
       <c r="A345" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1">
       <c r="A347" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1">
       <c r="A348" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1">
       <c r="A349" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1">
       <c r="A350" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1">
       <c r="A351" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1">
       <c r="A352" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1">
       <c r="A353" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1">
       <c r="A354" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1">
       <c r="A355" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1">
       <c r="A356" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1">
       <c r="A357" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1">
       <c r="A358" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1">
       <c r="A359" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1">
       <c r="A360" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1">
       <c r="A361" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1">
       <c r="A362" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1">
       <c r="A363" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1">
       <c r="A364" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1">
       <c r="A365" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1">
       <c r="A366" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1">
       <c r="A367" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1">
       <c r="A368" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1">
       <c r="A369" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1">
       <c r="A370" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1">
       <c r="A371" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1">
       <c r="A372" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1">
       <c r="A373" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1">
       <c r="A374" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1">
       <c r="A375" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1">
       <c r="A376" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1">
       <c r="A377" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1">
       <c r="A378" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1">
       <c r="A379" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1">
       <c r="A380" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1">
       <c r="A381" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1">
       <c r="A382" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1">
       <c r="A383" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1">
       <c r="A384" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1">
       <c r="A385" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1">
       <c r="A386" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1">
       <c r="A387" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1">
       <c r="A388" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1">
       <c r="A389" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1">
       <c r="A390" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1">
       <c r="A391" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1">
       <c r="A392" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1">
       <c r="A393" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1">
       <c r="A394" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1">
       <c r="A395" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1">
       <c r="A396" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1">
       <c r="A397" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1">
       <c r="A398" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1">
       <c r="A399" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1">
       <c r="A400" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1">
       <c r="A401" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1">
       <c r="A402" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1">
       <c r="A403" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1">
       <c r="A404" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1">
       <c r="A405" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1">
       <c r="A406" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1">
       <c r="A407" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1">
       <c r="A408" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1">
       <c r="A409" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1">
       <c r="A410" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1">
       <c r="A411" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1">
       <c r="A412" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1">
       <c r="A413" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1">
       <c r="A414" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1">
       <c r="A415" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1">
       <c r="A416" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1">
       <c r="A417" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1">
       <c r="A418" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1">
       <c r="A419" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1">
       <c r="A420" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1">
       <c r="A421" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1">
       <c r="A422" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1">
       <c r="A423" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1">
       <c r="A424" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1">
       <c r="A425" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1">
       <c r="A426" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1">
       <c r="A427" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1">
       <c r="A428" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1">
       <c r="A429" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1">
       <c r="A430" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1">
       <c r="A431" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1">
       <c r="A432" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1">
       <c r="A433" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1">
       <c r="A434" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1">
       <c r="A435" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1">
       <c r="A436" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1">
       <c r="A437" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1">
       <c r="A438" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1">
       <c r="A439" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1">
       <c r="A440" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1">
       <c r="A441" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1">
       <c r="A442" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1">
       <c r="A443" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1">
       <c r="A444" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1">
       <c r="A445" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1">
       <c r="A446" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1">
       <c r="A447" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1">
       <c r="A448" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1">
       <c r="A449" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1">
       <c r="A450" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1">
       <c r="A451" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1">
       <c r="A452" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1">
       <c r="A453" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1">
       <c r="A454" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1">
       <c r="A455" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1">
       <c r="A456" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1">
       <c r="A457" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1">
       <c r="A458" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1">
       <c r="A459" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1">
       <c r="A460" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1">
       <c r="A461" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1">
       <c r="A462" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1">
       <c r="A463" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1">
       <c r="A464" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1">
       <c r="A465" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1">
       <c r="A466" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1">
       <c r="A467" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1">
       <c r="A468" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1">
       <c r="A469" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1">
       <c r="A470" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1">
       <c r="A471" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1">
       <c r="A472" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1">
       <c r="A473" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1">
       <c r="A474" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1">
       <c r="A475" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1">
       <c r="A476" t="s">
         <v>1</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF303C73-C723-DE4E-9AF3-9EC59341D1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD326EB0-A623-494C-A090-A01E69AAFA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2886,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="200" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="200" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD1D31A-A92B-9F47-AF88-FD29566ECB20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93928619-19F1-4923-BEFE-4E8DCE47396B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="27324" windowHeight="13344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -2675,7 +2675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2998,18 +2998,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" zoomScale="200" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201:B344"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>96</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>109</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>111</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>114</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>122</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>128</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>130</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>134</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>144</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>148</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>152</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>153</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>155</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>159</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>160</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>162</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>164</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>168</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>170</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>171</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>173</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>185</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>179</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>181</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>183</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>186</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>188</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>190</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>192</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>194</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>196</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>198</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>200</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>202</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>204</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>206</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>208</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>210</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>212</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>214</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>216</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>218</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>220</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>221</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>223</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>225</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>227</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>230</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>229</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>237</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>239</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>241</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>243</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>245</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>247</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>249</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>251</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>257</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>259</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>261</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>265</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>267</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>269</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>270</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>272</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>274</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>278</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>280</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>282</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>284</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>286</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>288</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>292</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>294</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>296</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>298</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>325</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>301</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>303</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>304</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>306</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>308</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>310</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>312</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>314</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>316</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>318</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>320</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>322</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>326</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>328</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>330</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>332</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>334</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>336</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>338</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>340</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>342</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>576</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>344</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>346</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>347</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>349</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>351</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>352</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>356</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>358</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>360</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>362</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>364</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>366</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>368</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>370</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>372</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>374</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>376</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>378</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>380</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>382</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>384</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>386</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>388</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>390</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>392</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>394</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>396</v>
       </c>
@@ -4620,13 +4620,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D632D2C-AD33-3943-A69D-57B9F347922B}">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="299" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>398</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>400</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>402</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>404</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>427</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>406</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>408</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>410</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>412</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>414</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>416</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>418</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>419</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>421</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>423</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>425</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>428</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>430</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>432</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>434</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>436</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>438</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>440</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>442</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>443</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>446</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>448</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>450</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>452</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>454</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>456</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>458</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>460</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>462</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>464</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>466</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>468</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>470</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>472</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>474</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>475</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>476</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>479</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>481</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>483</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>485</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>487</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>489</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>491</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>493</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>495</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>497</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>500</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>502</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>504</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>505</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>506</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>507</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>509</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>510</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>511</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>512</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>513</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>514</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>520</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>522</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>521</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>524</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>525</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>527</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>529</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>532</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>533</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>535</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>558</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>538</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>540</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>542</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>544</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>546</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>548</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>549</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>550</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>552</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>554</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>556</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>559</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>561</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>564</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>565</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>566</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>569</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>570</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>571</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>574</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>575</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>578</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>580</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>582</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>584</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>585</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>588</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>587</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>591</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>593</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>594</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>598</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>596</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>631</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>602</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>604</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>605</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>607</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>623</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>611</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>612</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>614</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>615</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>617</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>622</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>620</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>624</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>626</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>628</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>630</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>633</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>635</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>637</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>639</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>641</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>643</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>644</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>645</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>647</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>648</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>649</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>651</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>652</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>653</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>655</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>656</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>658</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>659</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>661</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93928619-19F1-4923-BEFE-4E8DCE47396B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42056D7F-15A7-0042-8C90-5AA7EF1BE1D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="27324" windowHeight="13344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="660">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1595,10 +1595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寻找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>in spite of</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2328,10 +2324,6 @@
   </si>
   <si>
     <t>as a matter of fact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事实上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2675,7 +2667,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2996,20 +2988,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3017,1596 +3009,1604 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B199" s="1" t="s">
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4620,1162 +4620,1162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D632D2C-AD33-3943-A69D-57B9F347922B}">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="B96" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="B135" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="B138" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="B144" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
